--- a/Meripaivakoris2019uus.xlsx
+++ b/Meripaivakoris2019uus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arolni\Desktop\MERIPÄIVÄKORIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Meripaivakoris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F288AA4-7C77-461F-AC17-CACCC81CCFB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E3270E-0458-488D-AEB1-E1B3B8E67FBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22170" yWindow="1020" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact Information" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="236">
   <si>
     <t>Timestamp</t>
   </si>
@@ -729,6 +729,24 @@
   </si>
   <si>
     <t>Firmasarja  Finaali</t>
+  </si>
+  <si>
+    <t>Koti</t>
+  </si>
+  <si>
+    <t>Vieras</t>
+  </si>
+  <si>
+    <t>Voittaja</t>
+  </si>
+  <si>
+    <t>Häviäjä</t>
+  </si>
+  <si>
+    <t>Kokonaispisteet</t>
+  </si>
+  <si>
+    <t>kokonaispisteet</t>
   </si>
 </sst>
 </file>
@@ -1652,13 +1670,11 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1677,6 +1693,9 @@
     <xf numFmtId="16" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1684,11 +1703,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1696,48 +1714,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Aksentti1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Aksentti2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Aksentti3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Aksentti4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Aksentti5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Aksentti6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Aksentti1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Aksentti2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Aksentti3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Aksentti4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Aksentti5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Aksentti6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Aksentti1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Aksentti2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Aksentti3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Aksentti4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Aksentti5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Aksentti6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Aksentti1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Aksentti2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Aksentti3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Aksentti4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Aksentti5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Aksentti6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Huomautus" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Huono" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Hyvä" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Laskenta" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Linkitetty solu" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutraali" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
-    <cellStyle name="Otsikko" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Otsikko 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Otsikko 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Otsikko 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Otsikko 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Selittävä teksti" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Summa" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Syöttö" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Tarkistussolu" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Tulostus" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Varoitusteksti" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1753,7 +1771,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2058,22 +2076,22 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" s="22" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B1" s="34" t="s">
         <v>106</v>
       </c>
@@ -2087,7 +2105,7 @@
       <c r="T1" s="8"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:24" s="42" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" s="42" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="41"/>
       <c r="D2" s="43"/>
       <c r="H2" s="43"/>
@@ -2096,7 +2114,7 @@
       <c r="T2" s="43"/>
       <c r="X2" s="43"/>
     </row>
-    <row r="3" spans="1:24" s="65" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="65" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2143,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2154,7 +2172,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2181,7 +2199,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2208,7 +2226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>4</v>
       </c>
@@ -2234,7 +2252,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>5</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2286,7 +2304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -2313,7 +2331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -2342,7 +2360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -2396,7 +2414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -2423,7 +2441,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -2450,7 +2468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="68">
         <v>8</v>
       </c>
@@ -2476,7 +2494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="68">
         <v>9</v>
       </c>
@@ -2503,7 +2521,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <v>10</v>
       </c>
@@ -2530,7 +2548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2559,7 +2577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -2586,7 +2604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68">
         <v>3</v>
       </c>
@@ -2612,7 +2630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <v>4</v>
       </c>
@@ -2637,7 +2655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -2664,7 +2682,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -2691,7 +2709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -2718,7 +2736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -2745,7 +2763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -2772,7 +2790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="71">
         <v>6</v>
       </c>
@@ -2798,7 +2816,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -2825,7 +2843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -2854,7 +2872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -2881,7 +2899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="68">
         <v>4</v>
       </c>
@@ -2907,7 +2925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="71">
         <v>5</v>
       </c>
@@ -2936,7 +2954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="71">
         <v>1</v>
       </c>
@@ -2962,7 +2980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2989,7 +3007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="68">
         <v>2</v>
       </c>
@@ -3015,7 +3033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="68">
         <v>3</v>
       </c>
@@ -3042,7 +3060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="71">
         <v>4</v>
       </c>
@@ -3069,7 +3087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -3087,19 +3105,19 @@
   </sheetPr>
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="32"/>
-    <col min="3" max="3" width="27.7109375" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="34.44140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="32"/>
+    <col min="3" max="3" width="27.6640625" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" s="22" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
         <v>106</v>
       </c>
@@ -3112,7 +3130,7 @@
       <c r="S1" s="8"/>
       <c r="W1" s="8"/>
     </row>
-    <row r="2" spans="1:23" s="42" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" s="42" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="41"/>
       <c r="C2" s="43"/>
       <c r="G2" s="43"/>
@@ -3121,13 +3139,13 @@
       <c r="S2" s="43"/>
       <c r="W2" s="43"/>
     </row>
-    <row r="3" spans="1:23" s="90" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="90" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>201</v>
       </c>
@@ -3144,7 +3162,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
@@ -3156,7 +3174,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>62</v>
       </c>
@@ -3174,7 +3192,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>16</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>36</v>
       </c>
@@ -3210,7 +3228,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>39</v>
       </c>
@@ -3228,7 +3246,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>45</v>
       </c>
@@ -3246,7 +3264,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>60</v>
       </c>
@@ -3255,7 +3273,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>80</v>
       </c>
@@ -3267,7 +3285,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>131</v>
       </c>
@@ -3279,7 +3297,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
         <v>160</v>
       </c>
@@ -3288,17 +3306,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C17" s="49"/>
     </row>
-    <row r="18" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>202</v>
       </c>
@@ -3306,7 +3324,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>53</v>
       </c>
@@ -3315,7 +3333,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>42</v>
       </c>
@@ -3324,7 +3342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>61</v>
       </c>
@@ -3333,7 +3351,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>157</v>
       </c>
@@ -3342,48 +3360,48 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="49"/>
       <c r="B23" s="49"/>
       <c r="C23" s="49" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="107" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="B30" s="119"/>
+      <c r="B30" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3401,24 +3419,24 @@
   </sheetPr>
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="4"/>
-    <col min="2" max="2" width="12.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="7" max="7" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="12.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="22" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
         <v>106</v>
       </c>
@@ -3432,12 +3450,12 @@
       <c r="Q1" s="8"/>
       <c r="U1" s="8"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="C2" s="1"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:21" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" s="24" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A3" s="35" t="s">
         <v>184</v>
       </c>
@@ -3449,26 +3467,37 @@
       <c r="Q3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="106"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="98" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>124</v>
       </c>
@@ -3489,7 +3518,7 @@
       </c>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>124</v>
       </c>
@@ -3510,7 +3539,7 @@
       </c>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>124</v>
       </c>
@@ -3531,7 +3560,7 @@
       </c>
       <c r="I8" s="39"/>
     </row>
-    <row r="9" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>124</v>
       </c>
@@ -3552,7 +3581,7 @@
       </c>
       <c r="I9" s="39"/>
     </row>
-    <row r="10" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>124</v>
       </c>
@@ -3573,7 +3602,7 @@
       </c>
       <c r="I10" s="58"/>
     </row>
-    <row r="11" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>124</v>
       </c>
@@ -3593,7 +3622,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>124</v>
       </c>
@@ -3613,7 +3642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>125</v>
       </c>
@@ -3633,7 +3662,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>125</v>
       </c>
@@ -3655,7 +3684,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>125</v>
       </c>
@@ -3675,7 +3704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>125</v>
       </c>
@@ -3696,7 +3725,7 @@
       </c>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>125</v>
       </c>
@@ -3717,7 +3746,7 @@
       </c>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>125</v>
       </c>
@@ -3738,7 +3767,7 @@
       </c>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
         <v>125</v>
       </c>
@@ -3759,7 +3788,7 @@
       </c>
       <c r="I19" s="39"/>
     </row>
-    <row r="20" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>126</v>
       </c>
@@ -3780,7 +3809,7 @@
       </c>
       <c r="I20" s="58"/>
     </row>
-    <row r="21" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>126</v>
       </c>
@@ -3802,7 +3831,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>126</v>
       </c>
@@ -3822,7 +3851,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
         <v>126</v>
       </c>
@@ -3842,7 +3871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>126</v>
       </c>
@@ -3862,7 +3891,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
         <v>126</v>
       </c>
@@ -3882,7 +3911,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>1000</v>
       </c>
@@ -3904,7 +3933,7 @@
         <v>Puutarhakadun Oilersit</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>1000</v>
       </c>
@@ -3924,7 +3953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>1000</v>
       </c>
@@ -3944,7 +3973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>1000</v>
       </c>
@@ -3964,7 +3993,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>1000</v>
       </c>
@@ -3984,7 +4013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="60">
         <v>1000</v>
       </c>
@@ -4004,7 +4033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>1020</v>
       </c>
@@ -4025,7 +4054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>1020</v>
       </c>
@@ -4045,7 +4074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>1020</v>
       </c>
@@ -4065,7 +4094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>1020</v>
       </c>
@@ -4085,7 +4114,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>1020</v>
       </c>
@@ -4107,7 +4136,7 @@
       <c r="J36" s="63"/>
       <c r="K36" s="99"/>
     </row>
-    <row r="37" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="60">
         <v>1020</v>
       </c>
@@ -4129,7 +4158,7 @@
       <c r="J37" s="63"/>
       <c r="K37" s="99"/>
     </row>
-    <row r="38" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>1040</v>
       </c>
@@ -4152,7 +4181,7 @@
       <c r="J38" s="63"/>
       <c r="K38" s="99"/>
     </row>
-    <row r="39" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>1040</v>
       </c>
@@ -4174,7 +4203,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="99"/>
     </row>
-    <row r="40" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>1040</v>
       </c>
@@ -4196,7 +4225,7 @@
       <c r="J40" s="64"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>1040</v>
       </c>
@@ -4217,7 +4246,7 @@
       </c>
       <c r="I41" s="39"/>
     </row>
-    <row r="42" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>1040</v>
       </c>
@@ -4238,7 +4267,7 @@
       </c>
       <c r="I42" s="39"/>
     </row>
-    <row r="43" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="60">
         <v>1040</v>
       </c>
@@ -4259,7 +4288,7 @@
       </c>
       <c r="I43" s="58"/>
     </row>
-    <row r="44" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>1100</v>
       </c>
@@ -4282,7 +4311,7 @@
       </c>
       <c r="I44" s="39"/>
     </row>
-    <row r="45" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>1100</v>
       </c>
@@ -4303,7 +4332,7 @@
       </c>
       <c r="I45" s="58"/>
     </row>
-    <row r="46" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>1100</v>
       </c>
@@ -4323,7 +4352,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>1100</v>
       </c>
@@ -4343,7 +4372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>1100</v>
       </c>
@@ -4363,7 +4392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>1120</v>
       </c>
@@ -4386,7 +4415,7 @@
       <c r="H49" s="83"/>
       <c r="I49" s="39"/>
     </row>
-    <row r="50" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>1120</v>
       </c>
@@ -4408,7 +4437,7 @@
       <c r="H50" s="83"/>
       <c r="I50" s="39"/>
     </row>
-    <row r="51" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>1120</v>
       </c>
@@ -4430,7 +4459,7 @@
       <c r="H51" s="83"/>
       <c r="I51" s="39"/>
     </row>
-    <row r="52" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>1120</v>
       </c>
@@ -4452,7 +4481,7 @@
       <c r="H52" s="83"/>
       <c r="I52" s="39"/>
     </row>
-    <row r="53" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>1120</v>
       </c>
@@ -4473,7 +4502,7 @@
       </c>
       <c r="I53" s="39"/>
     </row>
-    <row r="54" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="60">
         <v>1120</v>
       </c>
@@ -4494,7 +4523,7 @@
       </c>
       <c r="I54" s="39"/>
     </row>
-    <row r="55" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>1140</v>
       </c>
@@ -4516,7 +4545,7 @@
         <v>Puutarhakadun Oilersit</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>1140</v>
       </c>
@@ -4536,7 +4565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>1140</v>
       </c>
@@ -4556,7 +4585,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>1140</v>
       </c>
@@ -4576,7 +4605,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>1140</v>
       </c>
@@ -4596,7 +4625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="60">
         <v>1140</v>
       </c>
@@ -4616,7 +4645,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>1200</v>
       </c>
@@ -4637,7 +4666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>1200</v>
       </c>
@@ -4657,7 +4686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>1200</v>
       </c>
@@ -4677,7 +4706,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>1200</v>
       </c>
@@ -4697,7 +4726,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>1200</v>
       </c>
@@ -4717,7 +4746,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>1200</v>
       </c>
@@ -4737,7 +4766,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>1200</v>
       </c>
@@ -4758,7 +4787,7 @@
       </c>
       <c r="H67" s="39"/>
     </row>
-    <row r="68" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>1220</v>
       </c>
@@ -4780,7 +4809,7 @@
       </c>
       <c r="H68" s="39"/>
     </row>
-    <row r="69" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>1220</v>
       </c>
@@ -4801,7 +4830,7 @@
       </c>
       <c r="H69" s="58"/>
     </row>
-    <row r="70" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="91">
         <v>1220</v>
       </c>
@@ -4822,7 +4851,7 @@
       </c>
       <c r="H70" s="58"/>
     </row>
-    <row r="71" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>1220</v>
       </c>
@@ -4843,7 +4872,7 @@
       </c>
       <c r="H71" s="58"/>
     </row>
-    <row r="72" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="91">
         <v>1220</v>
       </c>
@@ -4863,7 +4892,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>1220</v>
       </c>
@@ -4883,7 +4912,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>1240</v>
       </c>
@@ -4903,7 +4932,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="64">
         <v>1240</v>
       </c>
@@ -4923,7 +4952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
         <v>1240</v>
       </c>
@@ -4943,7 +4972,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="91">
         <v>1240</v>
       </c>
@@ -4963,7 +4992,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="21">
         <v>1240</v>
       </c>
@@ -4984,7 +5013,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>1300</v>
       </c>
@@ -5004,7 +5033,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="64">
         <v>1300</v>
       </c>
@@ -5024,7 +5053,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="91">
         <v>1300</v>
       </c>
@@ -5044,7 +5073,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A82" s="91">
         <v>1300</v>
       </c>
@@ -5064,7 +5093,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>1300</v>
       </c>
@@ -5084,7 +5113,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>1300</v>
       </c>
@@ -5105,7 +5134,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>1320</v>
       </c>
@@ -5125,7 +5154,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>1320</v>
       </c>
@@ -5145,7 +5174,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
         <v>1320</v>
       </c>
@@ -5167,7 +5196,7 @@
       </c>
       <c r="I87" s="102"/>
     </row>
-    <row r="88" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <v>1340</v>
       </c>
@@ -5189,7 +5218,7 @@
       </c>
       <c r="I88" s="105"/>
     </row>
-    <row r="89" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <v>1340</v>
       </c>
@@ -5237,35 +5266,35 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="3" customWidth="1"/>
     <col min="3" max="6" width="3" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="3" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="3"/>
+    <col min="7" max="7" width="30.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" style="3"/>
     <col min="15" max="15" width="18" style="3" customWidth="1"/>
     <col min="16" max="19" width="3" style="3" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="3" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" style="3"/>
-    <col min="28" max="28" width="5.140625" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="3"/>
+    <col min="20" max="20" width="21.109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.5546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="22.88671875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="3.44140625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="3" customWidth="1"/>
+    <col min="26" max="27" width="9.109375" style="3"/>
+    <col min="28" max="28" width="5.109375" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" s="7" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>106</v>
       </c>
@@ -5277,7 +5306,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -5289,7 +5318,7 @@
       <c r="V3" s="30"/>
       <c r="AB3" s="10"/>
     </row>
-    <row r="4" spans="1:28" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="109" t="s">
         <v>141</v>
       </c>
@@ -5306,6 +5335,9 @@
       <c r="F4" s="31" t="s">
         <v>112</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="N4" s="109" t="s">
         <v>142</v>
       </c>
@@ -5321,6 +5353,9 @@
       </c>
       <c r="S4" s="31" t="s">
         <v>112</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="U4" s="13"/>
       <c r="V4" s="61" t="s">
@@ -5363,9 +5398,9 @@
       <c r="W5" s="104">
         <v>2</v>
       </c>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
       <c r="AA5" s="55"/>
       <c r="AB5" s="55"/>
     </row>
@@ -5403,9 +5438,9 @@
       <c r="W6" s="104">
         <v>4</v>
       </c>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
       <c r="AA6" s="50"/>
       <c r="AB6" s="50"/>
     </row>
@@ -5443,9 +5478,9 @@
       <c r="W7" s="104">
         <v>6</v>
       </c>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
       <c r="AA7" s="50"/>
       <c r="AB7" s="50"/>
     </row>
@@ -5483,9 +5518,9 @@
       <c r="W8" s="104">
         <v>8</v>
       </c>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
       <c r="AA8" s="50"/>
       <c r="AB8" s="50"/>
     </row>
@@ -5519,9 +5554,9 @@
       <c r="W9" s="104">
         <v>10</v>
       </c>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
       <c r="AA9" s="50"/>
       <c r="AB9" s="50"/>
     </row>
@@ -5537,7 +5572,7 @@
       <c r="U11" s="13"/>
       <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="1:28" s="14" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="30" t="s">
         <v>102</v>
       </c>
@@ -5554,7 +5589,7 @@
       <c r="U12" s="15"/>
       <c r="AB12" s="13"/>
     </row>
-    <row r="13" spans="1:28" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -6105,7 +6140,7 @@
       <c r="U25" s="13"/>
       <c r="X25" s="13"/>
     </row>
-    <row r="26" spans="1:24" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="82">
         <v>1320</v>
       </c>
@@ -6133,7 +6168,7 @@
       </c>
       <c r="L26" s="88"/>
     </row>
-    <row r="27" spans="1:24" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="82">
         <v>1300</v>
       </c>
@@ -6163,16 +6198,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="X5:Z5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="X5:Z5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -6190,24 +6225,24 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="6" width="2.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="3" customWidth="1"/>
+    <col min="3" max="6" width="2.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="30" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="8.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>106</v>
       </c>
@@ -6218,16 +6253,16 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="23"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-    </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+    </row>
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="31" t="s">
         <v>113</v>
       </c>
@@ -6240,16 +6275,19 @@
       <c r="F4" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="115" t="s">
+      <c r="G4" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="115"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="I4" s="116"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="117"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="33">
         <f>D5+E5</f>
         <v>0</v>
@@ -6264,11 +6302,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="107"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="33">
         <f>D6+E6</f>
         <v>0</v>
@@ -6283,11 +6321,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="107"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="33">
         <f>D7+E7</f>
         <v>0</v>
@@ -6302,11 +6340,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+    <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="107"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="33">
         <f>D8+E8</f>
         <v>0</v>
@@ -6321,7 +6359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="14" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="25" t="s">
         <v>102</v>
       </c>
@@ -6512,7 +6550,7 @@
       <c r="H23" s="20"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:12" s="89" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="89" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="82">
         <v>1200</v>
       </c>
@@ -6540,7 +6578,7 @@
       </c>
       <c r="L24" s="88"/>
     </row>
-    <row r="25" spans="1:12" s="89" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="89" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="82">
         <v>1240</v>
       </c>
@@ -6605,36 +6643,36 @@
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="3" customWidth="1"/>
     <col min="3" max="6" width="3" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="3" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="3"/>
+    <col min="7" max="7" width="30.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" style="3"/>
     <col min="15" max="15" width="18" style="3" customWidth="1"/>
     <col min="16" max="19" width="3" style="3" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="23.28515625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="23.33203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.5546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="3.44140625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="3" customWidth="1"/>
     <col min="26" max="26" width="12" style="3" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="3"/>
-    <col min="28" max="28" width="5.140625" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="3"/>
+    <col min="27" max="27" width="9.109375" style="3"/>
+    <col min="28" max="28" width="5.109375" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" s="7" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>106</v>
       </c>
@@ -6646,7 +6684,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -6660,7 +6698,7 @@
       <c r="V3" s="96"/>
       <c r="AB3" s="10"/>
     </row>
-    <row r="4" spans="1:28" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="109" t="s">
         <v>141</v>
       </c>
@@ -6677,6 +6715,9 @@
       <c r="F4" s="31" t="s">
         <v>112</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="N4" s="109" t="s">
         <v>142</v>
       </c>
@@ -6693,6 +6734,9 @@
       <c r="S4" s="31" t="s">
         <v>112</v>
       </c>
+      <c r="T4" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="U4" s="13"/>
       <c r="V4" s="96" t="s">
         <v>115</v>
@@ -6700,11 +6744,11 @@
       <c r="Y4" s="96"/>
       <c r="AB4" s="10"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="119"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="13">
         <f>D5+E5</f>
         <v>0</v>
@@ -6715,10 +6759,10 @@
         <f>D5*2+E5*1</f>
         <v>0</v>
       </c>
-      <c r="N5" s="107" t="s">
+      <c r="N5" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="119"/>
+      <c r="O5" s="107"/>
       <c r="P5" s="13">
         <f>Q5+R5</f>
         <v>0</v>
@@ -6740,11 +6784,11 @@
       <c r="AA5" s="55"/>
       <c r="AB5" s="55"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="119"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="13">
         <f>D6+E6</f>
         <v>0</v>
@@ -6779,11 +6823,11 @@
       <c r="AA6" s="97"/>
       <c r="AB6" s="97"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+    <row r="7" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="119"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="13">
         <f>D7+E7</f>
         <v>0</v>
@@ -6794,10 +6838,10 @@
         <f>D7*2+E7*1</f>
         <v>0</v>
       </c>
-      <c r="N7" s="107" t="s">
+      <c r="N7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="119"/>
+      <c r="O7" s="107"/>
       <c r="P7" s="13">
         <f>Q7+R7</f>
         <v>0</v>
@@ -6819,14 +6863,14 @@
       <c r="AA7" s="97"/>
       <c r="AB7" s="97"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="119"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="107"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
@@ -6870,7 +6914,7 @@
       </c>
       <c r="AB10" s="13"/>
     </row>
-    <row r="11" spans="1:28" s="14" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="96" t="s">
         <v>102</v>
       </c>
@@ -6882,7 +6926,7 @@
       <c r="U11" s="15"/>
       <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="1:28" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -7086,18 +7130,18 @@
       <c r="U17" s="13"/>
       <c r="X17" s="13"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="120" t="s">
+      <c r="G18" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
       <c r="K18" s="13" t="s">
         <v>109</v>
       </c>
@@ -7117,12 +7161,12 @@
       <c r="B19" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="53" t="s">
         <v>146</v>
       </c>
@@ -7151,12 +7195,12 @@
       <c r="B20" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="53" t="s">
         <v>147</v>
       </c>
@@ -7203,12 +7247,12 @@
       <c r="B22" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
       <c r="G22" s="53" t="s">
         <v>144</v>
       </c>
@@ -7237,12 +7281,12 @@
       <c r="B23" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
       <c r="G23" s="53" t="s">
         <v>145</v>
       </c>
@@ -7282,7 +7326,7 @@
       <c r="U24" s="13"/>
       <c r="X24" s="13"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>1240</v>
       </c>
@@ -7333,7 +7377,7 @@
       <c r="U26" s="13"/>
       <c r="X26" s="13"/>
     </row>
-    <row r="27" spans="1:24" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="82">
         <v>1300</v>
       </c>
@@ -7361,7 +7405,7 @@
       </c>
       <c r="L27" s="88"/>
     </row>
-    <row r="28" spans="1:24" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="82"/>
       <c r="B28" s="21"/>
       <c r="C28" s="95"/>
@@ -7375,7 +7419,7 @@
       <c r="K28" s="86"/>
       <c r="L28" s="88"/>
     </row>
-    <row r="29" spans="1:24" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="82">
         <v>1320</v>
       </c>
@@ -7405,6 +7449,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C27:F27"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
@@ -7421,7 +7466,6 @@
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7436,35 +7480,35 @@
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="3" customWidth="1"/>
     <col min="3" max="6" width="3" style="3" customWidth="1"/>
     <col min="7" max="7" width="19" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="3" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="3"/>
+    <col min="8" max="8" width="5.33203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" style="3"/>
     <col min="15" max="15" width="18" style="3" customWidth="1"/>
     <col min="16" max="19" width="3" style="3" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.5546875" style="3" customWidth="1"/>
     <col min="22" max="22" width="18" style="3" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="3" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" style="3"/>
-    <col min="28" max="28" width="5.140625" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="3"/>
+    <col min="23" max="23" width="6.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="3.44140625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="3" customWidth="1"/>
+    <col min="26" max="27" width="9.109375" style="3"/>
+    <col min="28" max="28" width="5.109375" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" s="7" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>106</v>
       </c>
@@ -7476,7 +7520,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -7488,7 +7532,7 @@
       <c r="V3" s="30"/>
       <c r="AB3" s="10"/>
     </row>
-    <row r="4" spans="1:28" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="109" t="s">
         <v>141</v>
       </c>
@@ -7505,6 +7549,9 @@
       <c r="F4" s="31" t="s">
         <v>112</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="N4" s="109" t="s">
         <v>142</v>
       </c>
@@ -7521,6 +7568,9 @@
       <c r="S4" s="31" t="s">
         <v>112</v>
       </c>
+      <c r="T4" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="U4" s="13"/>
       <c r="V4" s="61" t="s">
         <v>115</v>
@@ -7528,7 +7578,7 @@
       <c r="Y4" s="30"/>
       <c r="AB4" s="10"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>153</v>
       </c>
@@ -7568,7 +7618,7 @@
       <c r="AA5" s="55"/>
       <c r="AB5" s="55"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>90</v>
       </c>
@@ -7608,7 +7658,7 @@
       <c r="AA6" s="50"/>
       <c r="AB6" s="50"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>27</v>
       </c>
@@ -7648,7 +7698,7 @@
       <c r="AA7" s="50"/>
       <c r="AB7" s="50"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>95</v>
       </c>
@@ -7688,7 +7738,7 @@
       <c r="AA8" s="50"/>
       <c r="AB8" s="50"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>156</v>
       </c>
@@ -7724,7 +7774,7 @@
       <c r="AA9" s="50"/>
       <c r="AB9" s="50"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C10" s="13"/>
       <c r="F10" s="13"/>
       <c r="N10" s="48" t="s">
@@ -7745,7 +7795,7 @@
       <c r="U11" s="13"/>
       <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="1:28" s="14" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="30" t="s">
         <v>102</v>
       </c>
@@ -7762,7 +7812,7 @@
       <c r="U12" s="15"/>
       <c r="AB12" s="13"/>
     </row>
-    <row r="13" spans="1:28" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -8342,7 +8392,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -8376,7 +8426,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -8410,7 +8460,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="82">
         <v>1340</v>
       </c>
@@ -8459,7 +8509,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="82">
         <v>1340</v>
       </c>
@@ -8510,16 +8560,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="X5:Z5"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="X5:Z5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8537,23 +8587,23 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
     <col min="3" max="6" width="3" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="4.85546875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="20.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="3"/>
+    <col min="11" max="11" width="4.88671875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>106</v>
       </c>
@@ -8565,7 +8615,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -8573,7 +8623,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="109" t="s">
         <v>107</v>
       </c>
@@ -8590,12 +8640,15 @@
       <c r="F4" s="31" t="s">
         <v>112</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="H4" s="12"/>
       <c r="I4" s="61" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>91</v>
       </c>
@@ -8613,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>171</v>
       </c>
@@ -8631,7 +8684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>33</v>
       </c>
@@ -8649,7 +8702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>170</v>
       </c>
@@ -8667,7 +8720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>158</v>
       </c>
@@ -8687,7 +8740,7 @@
       <c r="C10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="12" spans="1:13" s="14" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="30" t="s">
         <v>102</v>
       </c>
@@ -8696,7 +8749,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -9004,7 +9057,7 @@
       <c r="F25" s="19"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:12" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="82">
         <v>1300</v>
       </c>
@@ -9032,7 +9085,7 @@
       </c>
       <c r="L26" s="88"/>
     </row>
-    <row r="27" spans="1:12" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="82">
         <v>1320</v>
       </c>
